--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melicias/Documents/projeto CIIC - inovmineral/newTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E415CC53-4DFB-B04D-ABF6-BD0C5F4C561A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA626793-1817-5741-9D44-B119ADF77B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="0" windowWidth="16680" windowHeight="21000" xr2:uid="{36346CD8-3FE4-D448-8DD5-31CF691BD5A8}"/>
+    <workbookView xWindow="16420" yWindow="1180" windowWidth="28040" windowHeight="17440" xr2:uid="{36346CD8-3FE4-D448-8DD5-31CF691BD5A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="93">
   <si>
     <t>Backdoor</t>
   </si>
@@ -264,6 +264,57 @@
   </si>
   <si>
     <t>91.9%</t>
+  </si>
+  <si>
+    <t>Dataset sem SMOTE e 250.000 normal</t>
+  </si>
+  <si>
+    <t>95.25%</t>
+  </si>
+  <si>
+    <t>95.26%</t>
+  </si>
+  <si>
+    <t>95.23%</t>
+  </si>
+  <si>
+    <t>Tabnet</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>Com todo o dataset (20 epocas)</t>
+  </si>
+  <si>
+    <t>Com todo o dataset (100 epocas)</t>
+  </si>
+  <si>
+    <t>dataset com 250.000 normal com SMOTE (20 epocas)</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.42</t>
   </si>
 </sst>
 </file>
@@ -621,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A463B7D-D319-AA4C-87A7-ECB070DEF2AC}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:H23"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,18 +686,25 @@
     <col min="4" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
         <v>60</v>
       </c>
       <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>16</v>
       </c>
@@ -665,8 +723,20 @@
       <c r="G2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>29</v>
       </c>
@@ -685,8 +755,20 @@
       <c r="G3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -708,8 +790,17 @@
       <c r="G4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -731,8 +822,17 @@
       <c r="G5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -754,8 +854,17 @@
       <c r="G6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -777,8 +886,17 @@
       <c r="G7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -800,8 +918,17 @@
       <c r="G8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -823,8 +950,17 @@
       <c r="G9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -846,8 +982,17 @@
       <c r="G10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -869,8 +1014,17 @@
       <c r="G11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -892,8 +1046,17 @@
       <c r="G12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -915,8 +1078,17 @@
       <c r="G13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -938,8 +1110,17 @@
       <c r="G14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -961,8 +1142,17 @@
       <c r="G15" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -984,8 +1174,17 @@
       <c r="G16" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1007,8 +1206,17 @@
       <c r="G17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1030,8 +1238,17 @@
       <c r="G18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1053,8 +1270,11 @@
       <c r="G20" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1076,8 +1296,11 @@
       <c r="G21" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1099,8 +1322,11 @@
       <c r="G22" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1122,11 +1348,15 @@
       <c r="G23" t="s">
         <v>75</v>
       </c>
+      <c r="H23" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:G1"/>
+  <mergeCells count="3">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melicias/Documents/projeto CIIC - inovmineral/newTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA626793-1817-5741-9D44-B119ADF77B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581CE6F7-2082-884F-9B33-F8FAA79986FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16420" yWindow="1180" windowWidth="28040" windowHeight="17440" xr2:uid="{36346CD8-3FE4-D448-8DD5-31CF691BD5A8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" xr2:uid="{36346CD8-3FE4-D448-8DD5-31CF691BD5A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="135">
   <si>
     <t>Backdoor</t>
   </si>
@@ -134,9 +134,6 @@
     <t>98.05%</t>
   </si>
   <si>
-    <t>dataset completo SEM SMOTE (max_depth=10)</t>
-  </si>
-  <si>
     <t>0.97</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>0.45</t>
   </si>
   <si>
-    <t>0.3</t>
-  </si>
-  <si>
     <t>0.63</t>
   </si>
   <si>
@@ -167,18 +161,6 @@
     <t>0.52</t>
   </si>
   <si>
-    <t>89.17%</t>
-  </si>
-  <si>
-    <t>94.01%</t>
-  </si>
-  <si>
-    <t>89.02%</t>
-  </si>
-  <si>
-    <t>dataset completo COM SMOTE (max_depth=10) (fluxo normal cortado para 500.000)</t>
-  </si>
-  <si>
     <t>dataset com 500.000 NORMAL e com SMOTE</t>
   </si>
   <si>
@@ -315,6 +297,150 @@
   </si>
   <si>
     <t>0.42</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t>Treino de uma so vez</t>
+  </si>
+  <si>
+    <t>treino de uma so vez SMOTE</t>
+  </si>
+  <si>
+    <t>Treino em chunks</t>
+  </si>
+  <si>
+    <t>96.10%</t>
+  </si>
+  <si>
+    <t>98.51%</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>98.26%</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>Macro avg</t>
+  </si>
+  <si>
+    <t>weighted avg</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>balanced accuracy</t>
+  </si>
+  <si>
+    <t>0.911830</t>
+  </si>
+  <si>
+    <t>98.37%</t>
+  </si>
+  <si>
+    <t>98.4%</t>
+  </si>
+  <si>
+    <t>98.36%</t>
+  </si>
+  <si>
+    <t>0.919846</t>
+  </si>
+  <si>
+    <t>dataset completo COM SMOTE (max_depth=20) (fluxo normal 250.000)</t>
+  </si>
+  <si>
+    <t>dataset completo SEM SMOTE (max_depth=20)</t>
+  </si>
+  <si>
+    <t>dataset completo COM SMOTE (max_depth=20) (fluxo normal 500.000)</t>
+  </si>
+  <si>
+    <t>dataset completo COM SMOTE (max_depth=20) (fluxo normal 750.000)</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>89.46%</t>
+  </si>
+  <si>
+    <t>91.08%</t>
+  </si>
+  <si>
+    <t>89.87%</t>
+  </si>
+  <si>
+    <t>0.854139</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>91.6%</t>
+  </si>
+  <si>
+    <t>92.95%</t>
+  </si>
+  <si>
+    <t>91.ç6%</t>
+  </si>
+  <si>
+    <t>91.85%</t>
+  </si>
+  <si>
+    <t>0.844966</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>93.21%</t>
+  </si>
+  <si>
+    <t>94.31%</t>
+  </si>
+  <si>
+    <t>93.48%</t>
+  </si>
+  <si>
+    <t>0.845824</t>
+  </si>
+  <si>
+    <t>dataset completo SEM SMOTE (max_depth=20) com 250.000 normal</t>
+  </si>
+  <si>
+    <t>95.78%</t>
+  </si>
+  <si>
+    <t>95.95%</t>
+  </si>
+  <si>
+    <t>95.77%</t>
+  </si>
+  <si>
+    <t>0.913852</t>
   </si>
 </sst>
 </file>
@@ -350,13 +476,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,74 +801,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A463B7D-D319-AA4C-87A7-ECB070DEF2AC}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
+    <col min="4" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="8" width="26.5" customWidth="1"/>
+    <col min="9" max="9" width="31.5" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="24.83203125" customWidth="1"/>
+    <col min="17" max="17" width="25.83203125" customWidth="1"/>
+    <col min="18" max="18" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
+      <c r="Q2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -767,142 +928,232 @@
       <c r="K3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="s">
         <v>49</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="R5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="N7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -927,46 +1178,82 @@
       <c r="J8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" t="s">
         <v>36</v>
       </c>
-      <c r="E9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="P9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
@@ -986,19 +1273,37 @@
         <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
@@ -1023,340 +1328,706 @@
       <c r="J11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" t="s">
         <v>19</v>
       </c>
-      <c r="G12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="K12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" t="s">
         <v>21</v>
       </c>
-      <c r="I12" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="M12" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="J13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
         <v>20</v>
       </c>
-      <c r="I14" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="K14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
       <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="N15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" t="s">
         <v>22</v>
       </c>
-      <c r="G16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="K16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" t="s">
+        <v>78</v>
+      </c>
+      <c r="N16" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>75</v>
+      </c>
+      <c r="R16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" t="s">
         <v>20</v>
       </c>
-      <c r="E17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="L17" t="s">
         <v>17</v>
       </c>
-      <c r="I17" t="s">
+      <c r="M17" t="s">
         <v>19</v>
       </c>
-      <c r="J17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="N17" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H18" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="I18" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="J18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>75</v>
+      </c>
+      <c r="R18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="H20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>91</v>
+      </c>
+      <c r="R20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="E21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" t="s">
+        <v>127</v>
+      </c>
+      <c r="I21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" t="s">
         <v>58</v>
       </c>
-      <c r="F21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="K21" t="s">
+        <v>68</v>
+      </c>
+      <c r="L21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="H22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
       <c r="D23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" t="s">
+        <v>128</v>
+      </c>
+      <c r="I23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
         <v>45</v>
       </c>
-      <c r="E23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" t="s">
-        <v>75</v>
-      </c>
-      <c r="H23" t="s">
-        <v>79</v>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="I1:K1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="A24:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melicias/Documents/projeto CIIC - inovmineral/newTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581CE6F7-2082-884F-9B33-F8FAA79986FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A2D400-4FCB-214E-892C-1B004BA5AB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" xr2:uid="{36346CD8-3FE4-D448-8DD5-31CF691BD5A8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="143">
   <si>
     <t>Backdoor</t>
   </si>
@@ -441,6 +441,30 @@
   </si>
   <si>
     <t>0.913852</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>92.28%</t>
+  </si>
+  <si>
+    <t>93.39%</t>
+  </si>
+  <si>
+    <t>92.21%</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>0.784786</t>
+  </si>
+  <si>
+    <t>dataset com 250.000 SMOTENC</t>
   </si>
 </sst>
 </file>
@@ -801,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A463B7D-D319-AA4C-87A7-ECB070DEF2AC}">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -812,19 +836,20 @@
     <col min="1" max="1" width="13.1640625" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="28.1640625" customWidth="1"/>
-    <col min="4" max="5" width="26" customWidth="1"/>
+    <col min="4" max="5" width="26.1640625" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" customWidth="1"/>
     <col min="7" max="8" width="26.5" customWidth="1"/>
-    <col min="9" max="9" width="31.5" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" customWidth="1"/>
-    <col min="14" max="14" width="15.5" customWidth="1"/>
-    <col min="16" max="16" width="24.83203125" customWidth="1"/>
-    <col min="17" max="17" width="25.83203125" customWidth="1"/>
-    <col min="18" max="18" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="28.5" customWidth="1"/>
+    <col min="10" max="10" width="31.5" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" customWidth="1"/>
+    <col min="15" max="15" width="15.5" customWidth="1"/>
+    <col min="17" max="17" width="24.83203125" customWidth="1"/>
+    <col min="18" max="18" width="25.83203125" customWidth="1"/>
+    <col min="19" max="19" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
@@ -834,23 +859,24 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>16</v>
       </c>
@@ -870,37 +896,40 @@
         <v>110</v>
       </c>
       <c r="I2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" t="s">
         <v>41</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>55</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>60</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>70</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>80</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>81</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>82</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>88</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>89</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>29</v>
       </c>
@@ -949,8 +978,11 @@
       <c r="R3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -973,34 +1005,37 @@
         <v>32</v>
       </c>
       <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
         <v>42</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>32</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>17</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>32</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>75</v>
       </c>
-      <c r="N4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="O4" t="s">
         <v>32</v>
       </c>
       <c r="Q4" t="s">
         <v>32</v>
       </c>
       <c r="R4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -1023,34 +1058,37 @@
         <v>33</v>
       </c>
       <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
         <v>43</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>18</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>61</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>18</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>19</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>25</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>49</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -1085,12 +1123,12 @@
         <v>23</v>
       </c>
       <c r="M6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" t="s">
         <v>76</v>
       </c>
-      <c r="N6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="O6" t="s">
         <v>23</v>
       </c>
       <c r="Q6" t="s">
@@ -1099,8 +1137,11 @@
       <c r="R6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -1135,22 +1176,25 @@
         <v>23</v>
       </c>
       <c r="M7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" t="s">
         <v>25</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>45</v>
       </c>
-      <c r="P7" t="s">
-        <v>23</v>
-      </c>
       <c r="Q7" t="s">
         <v>23</v>
       </c>
       <c r="R7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -1190,7 +1234,7 @@
       <c r="N8" t="s">
         <v>23</v>
       </c>
-      <c r="P8" t="s">
+      <c r="O8" t="s">
         <v>23</v>
       </c>
       <c r="Q8" t="s">
@@ -1199,8 +1243,11 @@
       <c r="R8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -1223,34 +1270,37 @@
         <v>124</v>
       </c>
       <c r="I9" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" t="s">
         <v>44</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>47</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>62</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>61</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>77</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>36</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>35</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -1273,7 +1323,7 @@
         <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
@@ -1285,22 +1335,25 @@
         <v>23</v>
       </c>
       <c r="M10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" t="s">
         <v>56</v>
       </c>
-      <c r="N10" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="O10" t="s">
         <v>23</v>
       </c>
       <c r="Q10" t="s">
         <v>23</v>
       </c>
       <c r="R10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -1340,7 +1393,7 @@
       <c r="N11" t="s">
         <v>23</v>
       </c>
-      <c r="P11" t="s">
+      <c r="O11" t="s">
         <v>23</v>
       </c>
       <c r="Q11" t="s">
@@ -1349,8 +1402,11 @@
       <c r="R11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -1373,34 +1429,37 @@
         <v>85</v>
       </c>
       <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
         <v>34</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>19</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>39</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>21</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>62</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>83</v>
-      </c>
-      <c r="P12" t="s">
-        <v>75</v>
       </c>
       <c r="Q12" t="s">
         <v>75</v>
       </c>
       <c r="R12" t="s">
+        <v>75</v>
+      </c>
+      <c r="S12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -1423,34 +1482,37 @@
         <v>17</v>
       </c>
       <c r="I13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" t="s">
         <v>45</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>56</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>63</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>56</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>77</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>84</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>56</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>32</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -1476,31 +1538,34 @@
         <v>46</v>
       </c>
       <c r="J14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" t="s">
         <v>20</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>45</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>20</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>66</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>49</v>
-      </c>
-      <c r="P14" t="s">
-        <v>20</v>
       </c>
       <c r="Q14" t="s">
         <v>20</v>
       </c>
       <c r="R14" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>11</v>
       </c>
@@ -1523,25 +1588,25 @@
         <v>125</v>
       </c>
       <c r="I15" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" t="s">
         <v>47</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>25</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>64</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>19</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>40</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>39</v>
-      </c>
-      <c r="P15" t="s">
-        <v>37</v>
       </c>
       <c r="Q15" t="s">
         <v>37</v>
@@ -1549,8 +1614,11 @@
       <c r="R15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -1573,34 +1641,37 @@
         <v>38</v>
       </c>
       <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
         <v>48</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>22</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>65</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>57</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>78</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>85</v>
-      </c>
-      <c r="P16" t="s">
-        <v>75</v>
       </c>
       <c r="Q16" t="s">
         <v>75</v>
       </c>
       <c r="R16" t="s">
+        <v>75</v>
+      </c>
+      <c r="S16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -1626,31 +1697,34 @@
         <v>49</v>
       </c>
       <c r="J17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" t="s">
         <v>32</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>20</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>17</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>19</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>45</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>56</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>32</v>
       </c>
       <c r="R17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>14</v>
       </c>
@@ -1673,34 +1747,37 @@
         <v>40</v>
       </c>
       <c r="I18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" t="s">
         <v>50</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>57</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>66</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>57</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>79</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>86</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>46</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>75</v>
       </c>
       <c r="R18" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>26</v>
       </c>
@@ -1723,28 +1800,31 @@
         <v>126</v>
       </c>
       <c r="I20" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" t="s">
         <v>51</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>58</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>67</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>71</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>92</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>91</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>27</v>
       </c>
@@ -1767,19 +1847,22 @@
         <v>127</v>
       </c>
       <c r="I21" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" t="s">
         <v>52</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>58</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>68</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>28</v>
       </c>
@@ -1802,19 +1885,22 @@
         <v>126</v>
       </c>
       <c r="I22" t="s">
+        <v>137</v>
+      </c>
+      <c r="J22" t="s">
         <v>51</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>58</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>67</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -1837,19 +1923,22 @@
         <v>128</v>
       </c>
       <c r="I23" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" t="s">
         <v>53</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>59</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>69</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>97</v>
       </c>
@@ -1874,8 +1963,11 @@
       <c r="H24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>28</v>
@@ -1898,8 +1990,11 @@
       <c r="H25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" t="s">
         <v>30</v>
@@ -1922,8 +2017,11 @@
       <c r="H26" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>98</v>
       </c>
@@ -1948,8 +2046,11 @@
       <c r="H27" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" t="s">
         <v>28</v>
@@ -1972,8 +2073,11 @@
       <c r="H28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
         <v>30</v>
@@ -1996,8 +2100,11 @@
       <c r="H29" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>101</v>
       </c>
@@ -2018,15 +2125,18 @@
       </c>
       <c r="H30" t="s">
         <v>129</v>
+      </c>
+      <c r="I30" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A27:A29"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="A24:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melicias/Documents/projeto CIIC - inovmineral/newTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A2D400-4FCB-214E-892C-1B004BA5AB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99863EC9-6998-9F4C-B7FC-4D8C9EBFB7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" xr2:uid="{36346CD8-3FE4-D448-8DD5-31CF691BD5A8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="188">
   <si>
     <t>Backdoor</t>
   </si>
@@ -465,6 +465,141 @@
   </si>
   <si>
     <t>dataset com 250.000 SMOTENC</t>
+  </si>
+  <si>
+    <t>2022 dataset</t>
+  </si>
+  <si>
+    <t>arp_spoofing</t>
+  </si>
+  <si>
+    <t>http_botnet</t>
+  </si>
+  <si>
+    <t>http_flood</t>
+  </si>
+  <si>
+    <t>http_flood_node_red</t>
+  </si>
+  <si>
+    <t>icmp_flood</t>
+  </si>
+  <si>
+    <t>mqtt_flood</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>port_scanning</t>
+  </si>
+  <si>
+    <t>tcp_flood</t>
+  </si>
+  <si>
+    <t>udp_flood</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>Weighted avg</t>
+  </si>
+  <si>
+    <t>97.01%</t>
+  </si>
+  <si>
+    <t>96.99%</t>
+  </si>
+  <si>
+    <t>96.98%</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.691826</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>96.69%</t>
+  </si>
+  <si>
+    <t>97.62%</t>
+  </si>
+  <si>
+    <t>96.8%</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>0.845976</t>
+  </si>
+  <si>
+    <t>Decision tree</t>
+  </si>
+  <si>
+    <t>Sem SMOTE</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Sem SMTOE</t>
+  </si>
+  <si>
+    <t>Com SMOTE</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>97.05%</t>
+  </si>
+  <si>
+    <t>97.07%</t>
+  </si>
+  <si>
+    <t>0.711491</t>
+  </si>
+  <si>
+    <t>xgboost</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>0.705249</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.819078</t>
+  </si>
+  <si>
+    <t>97.59%</t>
+  </si>
+  <si>
+    <t>97.11%</t>
+  </si>
+  <si>
+    <t>0.791810</t>
   </si>
 </sst>
 </file>
@@ -506,10 +641,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -825,24 +960,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A463B7D-D319-AA4C-87A7-ECB070DEF2AC}">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="74" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.1640625" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
     <col min="3" max="3" width="28.1640625" customWidth="1"/>
-    <col min="4" max="5" width="26.1640625" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="8" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
     <col min="9" max="9" width="28.5" customWidth="1"/>
     <col min="10" max="10" width="31.5" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" customWidth="1"/>
+    <col min="11" max="11" width="27.1640625" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" customWidth="1"/>
     <col min="15" max="15" width="15.5" customWidth="1"/>
     <col min="17" max="17" width="24.83203125" customWidth="1"/>
     <col min="18" max="18" width="25.83203125" customWidth="1"/>
@@ -850,31 +987,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -1939,7 +2076,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B24" t="s">
@@ -1968,7 +2105,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
+      <c r="A25" s="2"/>
       <c r="B25" t="s">
         <v>28</v>
       </c>
@@ -1995,7 +2132,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
+      <c r="A26" s="2"/>
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -2022,7 +2159,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B27" t="s">
@@ -2051,7 +2188,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
+      <c r="A28" s="2"/>
       <c r="B28" t="s">
         <v>28</v>
       </c>
@@ -2078,7 +2215,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
+      <c r="A29" s="2"/>
       <c r="B29" t="s">
         <v>30</v>
       </c>
@@ -2130,8 +2267,554 @@
         <v>141</v>
       </c>
     </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D32" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" t="s">
+        <v>172</v>
+      </c>
+      <c r="F33" t="s">
+        <v>171</v>
+      </c>
+      <c r="G33" t="s">
+        <v>172</v>
+      </c>
+      <c r="H33" t="s">
+        <v>169</v>
+      </c>
+      <c r="I33" t="s">
+        <v>172</v>
+      </c>
+      <c r="J33" t="s">
+        <v>169</v>
+      </c>
+      <c r="K33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" t="s">
+        <v>179</v>
+      </c>
+      <c r="K35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" t="s">
+        <v>77</v>
+      </c>
+      <c r="J36" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" t="s">
+        <v>173</v>
+      </c>
+      <c r="G37" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37" t="s">
+        <v>180</v>
+      </c>
+      <c r="K37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" t="s">
+        <v>76</v>
+      </c>
+      <c r="J38" t="s">
+        <v>56</v>
+      </c>
+      <c r="K38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" t="s">
+        <v>76</v>
+      </c>
+      <c r="J40" t="s">
+        <v>76</v>
+      </c>
+      <c r="K40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" t="s">
+        <v>162</v>
+      </c>
+      <c r="J41" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" t="s">
+        <v>174</v>
+      </c>
+      <c r="G42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" t="s">
+        <v>84</v>
+      </c>
+      <c r="K42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" t="s">
+        <v>156</v>
+      </c>
+      <c r="E46" t="s">
+        <v>163</v>
+      </c>
+      <c r="F46" t="s">
+        <v>175</v>
+      </c>
+      <c r="G46" t="s">
+        <v>158</v>
+      </c>
+      <c r="J46" t="s">
+        <v>181</v>
+      </c>
+      <c r="K46" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" t="s">
+        <v>164</v>
+      </c>
+      <c r="F47" t="s">
+        <v>176</v>
+      </c>
+      <c r="G47" t="s">
+        <v>185</v>
+      </c>
+      <c r="J47" t="s">
+        <v>181</v>
+      </c>
+      <c r="K47" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" t="s">
+        <v>156</v>
+      </c>
+      <c r="E48" t="s">
+        <v>163</v>
+      </c>
+      <c r="F48" t="s">
+        <v>175</v>
+      </c>
+      <c r="G48" t="s">
+        <v>158</v>
+      </c>
+      <c r="J48" t="s">
+        <v>181</v>
+      </c>
+      <c r="K48" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" t="s">
+        <v>165</v>
+      </c>
+      <c r="F49" t="s">
+        <v>175</v>
+      </c>
+      <c r="G49" t="s">
+        <v>186</v>
+      </c>
+      <c r="J49" t="s">
+        <v>181</v>
+      </c>
+      <c r="K49" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" t="s">
+        <v>159</v>
+      </c>
+      <c r="E50" t="s">
+        <v>166</v>
+      </c>
+      <c r="F50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" t="s">
+        <v>61</v>
+      </c>
+      <c r="J50" t="s">
+        <v>166</v>
+      </c>
+      <c r="K50" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" t="s">
+        <v>61</v>
+      </c>
+      <c r="G51" t="s">
+        <v>57</v>
+      </c>
+      <c r="J51" t="s">
+        <v>61</v>
+      </c>
+      <c r="K51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" t="s">
+        <v>48</v>
+      </c>
+      <c r="J52" t="s">
+        <v>61</v>
+      </c>
+      <c r="K52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" t="s">
+        <v>56</v>
+      </c>
+      <c r="J53" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54" t="s">
+        <v>32</v>
+      </c>
+      <c r="K54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" t="s">
+        <v>160</v>
+      </c>
+      <c r="E56" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56" t="s">
+        <v>177</v>
+      </c>
+      <c r="G56" t="s">
+        <v>187</v>
+      </c>
+      <c r="J56" t="s">
+        <v>182</v>
+      </c>
+      <c r="K56" t="s">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="C1:J1"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melicias/Documents/projeto CIIC - inovmineral/newTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99863EC9-6998-9F4C-B7FC-4D8C9EBFB7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE75814D-1D37-B343-B6AF-3DE75A40684C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" xr2:uid="{36346CD8-3FE4-D448-8DD5-31CF691BD5A8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="195">
   <si>
     <t>Backdoor</t>
   </si>
@@ -600,6 +600,27 @@
   </si>
   <si>
     <t>0.791810</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>0.683398</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.801988</t>
   </si>
 </sst>
 </file>
@@ -963,7 +984,7 @@
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="74" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2330,6 +2351,12 @@
       <c r="G35" t="s">
         <v>35</v>
       </c>
+      <c r="H35" t="s">
+        <v>188</v>
+      </c>
+      <c r="I35" t="s">
+        <v>192</v>
+      </c>
       <c r="J35" t="s">
         <v>179</v>
       </c>
@@ -2353,6 +2380,12 @@
       <c r="G36" t="s">
         <v>77</v>
       </c>
+      <c r="H36" t="s">
+        <v>77</v>
+      </c>
+      <c r="I36" t="s">
+        <v>77</v>
+      </c>
       <c r="J36" t="s">
         <v>77</v>
       </c>
@@ -2376,6 +2409,12 @@
       <c r="G37" t="s">
         <v>38</v>
       </c>
+      <c r="H37" t="s">
+        <v>189</v>
+      </c>
+      <c r="I37" t="s">
+        <v>36</v>
+      </c>
       <c r="J37" t="s">
         <v>180</v>
       </c>
@@ -2399,6 +2438,12 @@
       <c r="G38" t="s">
         <v>76</v>
       </c>
+      <c r="H38" t="s">
+        <v>76</v>
+      </c>
+      <c r="I38" t="s">
+        <v>76</v>
+      </c>
       <c r="J38" t="s">
         <v>56</v>
       </c>
@@ -2422,6 +2467,12 @@
       <c r="G39" t="s">
         <v>23</v>
       </c>
+      <c r="H39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" t="s">
+        <v>23</v>
+      </c>
       <c r="J39" t="s">
         <v>23</v>
       </c>
@@ -2445,6 +2496,12 @@
       <c r="G40" t="s">
         <v>76</v>
       </c>
+      <c r="H40" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" t="s">
+        <v>56</v>
+      </c>
       <c r="J40" t="s">
         <v>76</v>
       </c>
@@ -2468,6 +2525,12 @@
       <c r="G41" t="s">
         <v>162</v>
       </c>
+      <c r="H41" t="s">
+        <v>166</v>
+      </c>
+      <c r="I41" t="s">
+        <v>193</v>
+      </c>
       <c r="J41" t="s">
         <v>47</v>
       </c>
@@ -2491,6 +2554,12 @@
       <c r="G42" t="s">
         <v>24</v>
       </c>
+      <c r="H42" t="s">
+        <v>93</v>
+      </c>
+      <c r="I42" t="s">
+        <v>24</v>
+      </c>
       <c r="J42" t="s">
         <v>84</v>
       </c>
@@ -2514,6 +2583,12 @@
       <c r="G43" t="s">
         <v>18</v>
       </c>
+      <c r="H43" t="s">
+        <v>190</v>
+      </c>
+      <c r="I43" t="s">
+        <v>25</v>
+      </c>
       <c r="J43" t="s">
         <v>20</v>
       </c>
@@ -2537,6 +2612,12 @@
       <c r="G44" t="s">
         <v>23</v>
       </c>
+      <c r="H44" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" t="s">
+        <v>23</v>
+      </c>
       <c r="J44" t="s">
         <v>23</v>
       </c>
@@ -2560,6 +2641,12 @@
       <c r="G46" t="s">
         <v>158</v>
       </c>
+      <c r="H46" t="s">
+        <v>181</v>
+      </c>
+      <c r="I46" t="s">
+        <v>181</v>
+      </c>
       <c r="J46" t="s">
         <v>181</v>
       </c>
@@ -2583,6 +2670,12 @@
       <c r="G47" t="s">
         <v>185</v>
       </c>
+      <c r="H47" t="s">
+        <v>181</v>
+      </c>
+      <c r="I47" t="s">
+        <v>181</v>
+      </c>
       <c r="J47" t="s">
         <v>181</v>
       </c>
@@ -2606,6 +2699,12 @@
       <c r="G48" t="s">
         <v>158</v>
       </c>
+      <c r="H48" t="s">
+        <v>181</v>
+      </c>
+      <c r="I48" t="s">
+        <v>181</v>
+      </c>
       <c r="J48" t="s">
         <v>181</v>
       </c>
@@ -2629,6 +2728,12 @@
       <c r="G49" t="s">
         <v>186</v>
       </c>
+      <c r="H49" t="s">
+        <v>181</v>
+      </c>
+      <c r="I49" t="s">
+        <v>181</v>
+      </c>
       <c r="J49" t="s">
         <v>181</v>
       </c>
@@ -2654,6 +2759,12 @@
       </c>
       <c r="G50" t="s">
         <v>61</v>
+      </c>
+      <c r="H50" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" t="s">
+        <v>24</v>
       </c>
       <c r="J50" t="s">
         <v>166</v>
@@ -2679,6 +2790,12 @@
       <c r="G51" t="s">
         <v>57</v>
       </c>
+      <c r="H51" t="s">
+        <v>93</v>
+      </c>
+      <c r="I51" t="s">
+        <v>21</v>
+      </c>
       <c r="J51" t="s">
         <v>61</v>
       </c>
@@ -2703,6 +2820,12 @@
       <c r="G52" t="s">
         <v>48</v>
       </c>
+      <c r="H52" t="s">
+        <v>136</v>
+      </c>
+      <c r="I52" t="s">
+        <v>93</v>
+      </c>
       <c r="J52" t="s">
         <v>61</v>
       </c>
@@ -2728,6 +2851,12 @@
       </c>
       <c r="G53" t="s">
         <v>56</v>
+      </c>
+      <c r="H53" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" t="s">
+        <v>32</v>
       </c>
       <c r="J53" t="s">
         <v>32</v>
@@ -2753,6 +2882,12 @@
       <c r="G54" t="s">
         <v>32</v>
       </c>
+      <c r="H54" t="s">
+        <v>32</v>
+      </c>
+      <c r="I54" t="s">
+        <v>42</v>
+      </c>
       <c r="J54" t="s">
         <v>32</v>
       </c>
@@ -2777,6 +2912,12 @@
       <c r="G55" t="s">
         <v>32</v>
       </c>
+      <c r="H55" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" t="s">
+        <v>42</v>
+      </c>
       <c r="J55" t="s">
         <v>32</v>
       </c>
@@ -2799,6 +2940,12 @@
       </c>
       <c r="G56" t="s">
         <v>187</v>
+      </c>
+      <c r="H56" t="s">
+        <v>191</v>
+      </c>
+      <c r="I56" t="s">
+        <v>194</v>
       </c>
       <c r="J56" t="s">
         <v>182</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melicias/Documents/projeto CIIC - inovmineral/newTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE75814D-1D37-B343-B6AF-3DE75A40684C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E81A3F-5D73-CC4F-BE91-B4B0B02497E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" xr2:uid="{36346CD8-3FE4-D448-8DD5-31CF691BD5A8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="213">
   <si>
     <t>Backdoor</t>
   </si>
@@ -621,6 +621,60 @@
   </si>
   <si>
     <t>0.801988</t>
+  </si>
+  <si>
+    <t>Com SMOTENC</t>
+  </si>
+  <si>
+    <t>Com  SMOTENC apenas minoria</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>97.83%</t>
+  </si>
+  <si>
+    <t>97.87%</t>
+  </si>
+  <si>
+    <t>97.84%</t>
+  </si>
+  <si>
+    <t>0.805252</t>
+  </si>
+  <si>
+    <t>Com SMOTENC aumento todos</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>93.98%</t>
+  </si>
+  <si>
+    <t>94.29%</t>
+  </si>
+  <si>
+    <t>93.56%</t>
+  </si>
+  <si>
+    <t>0.939981</t>
+  </si>
+  <si>
+    <t>0.944631</t>
+  </si>
+  <si>
+    <t>96.19%</t>
+  </si>
+  <si>
+    <t>96.6%</t>
+  </si>
+  <si>
+    <t>96.1%</t>
+  </si>
+  <si>
+    <t>0.962038</t>
   </si>
 </sst>
 </file>
@@ -983,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A463B7D-D319-AA4C-87A7-ECB070DEF2AC}">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="74" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="86" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -992,7 +1046,7 @@
     <col min="1" max="1" width="13.1640625" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" customWidth="1"/>
     <col min="3" max="3" width="28.1640625" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="26.1640625" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="26.5" customWidth="1"/>
@@ -1001,7 +1055,10 @@
     <col min="10" max="10" width="31.5" customWidth="1"/>
     <col min="11" max="11" width="27.1640625" customWidth="1"/>
     <col min="12" max="12" width="13.83203125" customWidth="1"/>
-    <col min="15" max="15" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" customWidth="1"/>
     <col min="17" max="17" width="24.83203125" customWidth="1"/>
     <col min="18" max="18" width="25.83203125" customWidth="1"/>
     <col min="19" max="19" width="15.1640625" customWidth="1"/>
@@ -2293,20 +2350,25 @@
         <v>168</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
-        <v>170</v>
-      </c>
+      <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3" t="s">
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>143</v>
       </c>
@@ -2317,25 +2379,40 @@
         <v>172</v>
       </c>
       <c r="F33" t="s">
+        <v>196</v>
+      </c>
+      <c r="G33" t="s">
+        <v>202</v>
+      </c>
+      <c r="H33" t="s">
         <v>171</v>
-      </c>
-      <c r="G33" t="s">
-        <v>172</v>
-      </c>
-      <c r="H33" t="s">
-        <v>169</v>
       </c>
       <c r="I33" t="s">
         <v>172</v>
       </c>
       <c r="J33" t="s">
+        <v>195</v>
+      </c>
+      <c r="K33" t="s">
         <v>169</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M33" t="s">
+        <v>195</v>
+      </c>
+      <c r="N33" t="s">
+        <v>169</v>
+      </c>
+      <c r="O33" t="s">
+        <v>172</v>
+      </c>
+      <c r="P33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>144</v>
       </c>
@@ -2346,25 +2423,40 @@
         <v>78</v>
       </c>
       <c r="F35" t="s">
+        <v>197</v>
+      </c>
+      <c r="G35" t="s">
+        <v>203</v>
+      </c>
+      <c r="H35" t="s">
         <v>117</v>
       </c>
-      <c r="G35" t="s">
+      <c r="I35" t="s">
         <v>35</v>
       </c>
-      <c r="H35" t="s">
+      <c r="J35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K35" t="s">
         <v>188</v>
       </c>
-      <c r="I35" t="s">
+      <c r="L35" t="s">
         <v>192</v>
       </c>
-      <c r="J35" t="s">
+      <c r="M35" t="s">
+        <v>76</v>
+      </c>
+      <c r="N35" t="s">
         <v>179</v>
       </c>
-      <c r="K35" t="s">
+      <c r="O35" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>145</v>
       </c>
@@ -2375,10 +2467,10 @@
         <v>161</v>
       </c>
       <c r="F36" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="G36" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="H36" t="s">
         <v>77</v>
@@ -2387,13 +2479,28 @@
         <v>77</v>
       </c>
       <c r="J36" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="K36" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36" t="s">
+        <v>77</v>
+      </c>
+      <c r="M36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" t="s">
+        <v>77</v>
+      </c>
+      <c r="O36" t="s">
+        <v>77</v>
+      </c>
+      <c r="P36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>146</v>
       </c>
@@ -2404,25 +2511,40 @@
         <v>118</v>
       </c>
       <c r="F37" t="s">
+        <v>179</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" t="s">
         <v>173</v>
       </c>
-      <c r="G37" t="s">
+      <c r="I37" t="s">
         <v>38</v>
       </c>
-      <c r="H37" t="s">
+      <c r="J37" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" t="s">
         <v>189</v>
       </c>
-      <c r="I37" t="s">
+      <c r="L37" t="s">
         <v>36</v>
       </c>
-      <c r="J37" t="s">
+      <c r="M37" t="s">
+        <v>32</v>
+      </c>
+      <c r="N37" t="s">
         <v>180</v>
       </c>
-      <c r="K37" t="s">
+      <c r="O37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>147</v>
       </c>
@@ -2445,13 +2567,28 @@
         <v>76</v>
       </c>
       <c r="J38" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38" t="s">
+        <v>76</v>
+      </c>
+      <c r="M38" t="s">
+        <v>76</v>
+      </c>
+      <c r="N38" t="s">
+        <v>56</v>
+      </c>
+      <c r="O38" t="s">
+        <v>76</v>
+      </c>
+      <c r="P38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>148</v>
       </c>
@@ -2479,8 +2616,23 @@
       <c r="K39" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" t="s">
+        <v>23</v>
+      </c>
+      <c r="O39" t="s">
+        <v>23</v>
+      </c>
+      <c r="P39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>149</v>
       </c>
@@ -2497,19 +2649,34 @@
         <v>76</v>
       </c>
       <c r="H40" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="I40" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="J40" t="s">
         <v>76</v>
       </c>
       <c r="K40" t="s">
+        <v>56</v>
+      </c>
+      <c r="L40" t="s">
+        <v>56</v>
+      </c>
+      <c r="M40" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N40" t="s">
+        <v>76</v>
+      </c>
+      <c r="O40" t="s">
+        <v>76</v>
+      </c>
+      <c r="P40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>150</v>
       </c>
@@ -2520,25 +2687,40 @@
         <v>36</v>
       </c>
       <c r="F41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H41" t="s">
         <v>48</v>
       </c>
-      <c r="G41" t="s">
+      <c r="I41" t="s">
         <v>162</v>
       </c>
-      <c r="H41" t="s">
+      <c r="J41" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" t="s">
         <v>166</v>
       </c>
-      <c r="I41" t="s">
+      <c r="L41" t="s">
         <v>193</v>
       </c>
-      <c r="J41" t="s">
+      <c r="M41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N41" t="s">
         <v>47</v>
       </c>
-      <c r="K41" t="s">
+      <c r="O41" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>151</v>
       </c>
@@ -2549,25 +2731,40 @@
         <v>162</v>
       </c>
       <c r="F42" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" t="s">
         <v>174</v>
-      </c>
-      <c r="G42" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" t="s">
-        <v>93</v>
       </c>
       <c r="I42" t="s">
         <v>24</v>
       </c>
       <c r="J42" t="s">
+        <v>43</v>
+      </c>
+      <c r="K42" t="s">
+        <v>93</v>
+      </c>
+      <c r="L42" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42" t="s">
+        <v>43</v>
+      </c>
+      <c r="N42" t="s">
         <v>84</v>
       </c>
-      <c r="K42" t="s">
+      <c r="O42" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>152</v>
       </c>
@@ -2578,25 +2775,40 @@
         <v>18</v>
       </c>
       <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" t="s">
         <v>49</v>
       </c>
-      <c r="G43" t="s">
+      <c r="I43" t="s">
         <v>18</v>
       </c>
-      <c r="H43" t="s">
+      <c r="J43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K43" t="s">
         <v>190</v>
       </c>
-      <c r="I43" t="s">
+      <c r="L43" t="s">
         <v>25</v>
       </c>
-      <c r="J43" t="s">
+      <c r="M43" t="s">
+        <v>76</v>
+      </c>
+      <c r="N43" t="s">
         <v>20</v>
       </c>
-      <c r="K43" t="s">
+      <c r="O43" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>153</v>
       </c>
@@ -2624,8 +2836,23 @@
       <c r="K44" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44" t="s">
+        <v>23</v>
+      </c>
+      <c r="M44" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44" t="s">
+        <v>23</v>
+      </c>
+      <c r="O44" t="s">
+        <v>23</v>
+      </c>
+      <c r="P44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>26</v>
       </c>
@@ -2636,25 +2863,37 @@
         <v>163</v>
       </c>
       <c r="F46" t="s">
+        <v>198</v>
+      </c>
+      <c r="G46" t="s">
+        <v>204</v>
+      </c>
+      <c r="H46" t="s">
         <v>175</v>
       </c>
-      <c r="G46" t="s">
+      <c r="I46" t="s">
         <v>158</v>
       </c>
-      <c r="H46" t="s">
-        <v>181</v>
-      </c>
-      <c r="I46" t="s">
-        <v>181</v>
-      </c>
       <c r="J46" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="K46" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46" t="s">
+        <v>181</v>
+      </c>
+      <c r="M46" t="s">
+        <v>209</v>
+      </c>
+      <c r="N46" t="s">
+        <v>181</v>
+      </c>
+      <c r="O46" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>27</v>
       </c>
@@ -2665,25 +2904,37 @@
         <v>164</v>
       </c>
       <c r="F47" t="s">
+        <v>199</v>
+      </c>
+      <c r="G47" t="s">
+        <v>205</v>
+      </c>
+      <c r="H47" t="s">
         <v>176</v>
       </c>
-      <c r="G47" t="s">
+      <c r="I47" t="s">
         <v>185</v>
       </c>
-      <c r="H47" t="s">
-        <v>181</v>
-      </c>
-      <c r="I47" t="s">
-        <v>181</v>
-      </c>
       <c r="J47" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="K47" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47" t="s">
+        <v>181</v>
+      </c>
+      <c r="M47" t="s">
+        <v>210</v>
+      </c>
+      <c r="N47" t="s">
+        <v>181</v>
+      </c>
+      <c r="O47" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>28</v>
       </c>
@@ -2694,25 +2945,37 @@
         <v>163</v>
       </c>
       <c r="F48" t="s">
+        <v>198</v>
+      </c>
+      <c r="G48" t="s">
+        <v>204</v>
+      </c>
+      <c r="H48" t="s">
         <v>175</v>
       </c>
-      <c r="G48" t="s">
+      <c r="I48" t="s">
         <v>158</v>
       </c>
-      <c r="H48" t="s">
-        <v>181</v>
-      </c>
-      <c r="I48" t="s">
-        <v>181</v>
-      </c>
       <c r="J48" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="K48" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48" t="s">
+        <v>181</v>
+      </c>
+      <c r="M48" t="s">
+        <v>209</v>
+      </c>
+      <c r="N48" t="s">
+        <v>181</v>
+      </c>
+      <c r="O48" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>30</v>
       </c>
@@ -2723,25 +2986,37 @@
         <v>165</v>
       </c>
       <c r="F49" t="s">
+        <v>200</v>
+      </c>
+      <c r="G49" t="s">
+        <v>206</v>
+      </c>
+      <c r="H49" t="s">
         <v>175</v>
       </c>
-      <c r="G49" t="s">
+      <c r="I49" t="s">
         <v>186</v>
       </c>
-      <c r="H49" t="s">
-        <v>181</v>
-      </c>
-      <c r="I49" t="s">
-        <v>181</v>
-      </c>
       <c r="J49" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="K49" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49" t="s">
+        <v>181</v>
+      </c>
+      <c r="M49" t="s">
+        <v>211</v>
+      </c>
+      <c r="N49" t="s">
+        <v>181</v>
+      </c>
+      <c r="O49" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>97</v>
       </c>
@@ -2755,25 +3030,40 @@
         <v>166</v>
       </c>
       <c r="F50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H50" t="s">
         <v>61</v>
       </c>
-      <c r="G50" t="s">
+      <c r="I50" t="s">
         <v>61</v>
       </c>
-      <c r="H50" t="s">
+      <c r="J50" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" t="s">
         <v>24</v>
       </c>
-      <c r="I50" t="s">
+      <c r="L50" t="s">
         <v>24</v>
       </c>
-      <c r="J50" t="s">
+      <c r="M50" t="s">
+        <v>32</v>
+      </c>
+      <c r="N50" t="s">
         <v>166</v>
       </c>
-      <c r="K50" t="s">
+      <c r="O50" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" t="s">
         <v>28</v>
@@ -2785,25 +3075,40 @@
         <v>37</v>
       </c>
       <c r="F51" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" t="s">
+        <v>49</v>
+      </c>
+      <c r="H51" t="s">
         <v>61</v>
       </c>
-      <c r="G51" t="s">
+      <c r="I51" t="s">
         <v>57</v>
       </c>
-      <c r="H51" t="s">
+      <c r="J51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" t="s">
         <v>93</v>
       </c>
-      <c r="I51" t="s">
+      <c r="L51" t="s">
         <v>21</v>
       </c>
-      <c r="J51" t="s">
+      <c r="M51" t="s">
+        <v>17</v>
+      </c>
+      <c r="N51" t="s">
         <v>61</v>
       </c>
-      <c r="K51" t="s">
+      <c r="O51" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" t="s">
         <v>30</v>
@@ -2815,25 +3120,40 @@
         <v>48</v>
       </c>
       <c r="F52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>49</v>
+      </c>
+      <c r="H52" t="s">
         <v>61</v>
       </c>
-      <c r="G52" t="s">
+      <c r="I52" t="s">
         <v>48</v>
       </c>
-      <c r="H52" t="s">
+      <c r="J52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" t="s">
         <v>136</v>
       </c>
-      <c r="I52" t="s">
+      <c r="L52" t="s">
         <v>93</v>
       </c>
-      <c r="J52" t="s">
+      <c r="M52" t="s">
+        <v>17</v>
+      </c>
+      <c r="N52" t="s">
         <v>61</v>
       </c>
-      <c r="K52" t="s">
+      <c r="O52" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>155</v>
       </c>
@@ -2847,25 +3167,40 @@
         <v>56</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="G53" t="s">
+        <v>49</v>
+      </c>
+      <c r="H53" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" t="s">
         <v>56</v>
       </c>
-      <c r="H53" t="s">
-        <v>32</v>
-      </c>
-      <c r="I53" t="s">
-        <v>32</v>
-      </c>
       <c r="J53" t="s">
         <v>32</v>
       </c>
       <c r="K53" t="s">
+        <v>32</v>
+      </c>
+      <c r="L53" t="s">
+        <v>32</v>
+      </c>
+      <c r="M53" t="s">
+        <v>32</v>
+      </c>
+      <c r="N53" t="s">
+        <v>32</v>
+      </c>
+      <c r="O53" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" t="s">
         <v>28</v>
@@ -2877,25 +3212,40 @@
         <v>32</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H54" t="s">
         <v>32</v>
       </c>
       <c r="I54" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" t="s">
+        <v>32</v>
+      </c>
+      <c r="L54" t="s">
         <v>42</v>
       </c>
-      <c r="J54" t="s">
-        <v>32</v>
-      </c>
-      <c r="K54" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M54" t="s">
+        <v>17</v>
+      </c>
+      <c r="N54" t="s">
+        <v>32</v>
+      </c>
+      <c r="O54" t="s">
+        <v>32</v>
+      </c>
+      <c r="P54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" t="s">
         <v>30</v>
@@ -2907,25 +3257,40 @@
         <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H55" t="s">
         <v>32</v>
       </c>
       <c r="I55" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55" t="s">
         <v>42</v>
       </c>
-      <c r="J55" t="s">
-        <v>32</v>
-      </c>
-      <c r="K55" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M55" t="s">
+        <v>17</v>
+      </c>
+      <c r="N55" t="s">
+        <v>32</v>
+      </c>
+      <c r="O55" t="s">
+        <v>32</v>
+      </c>
+      <c r="P55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>101</v>
       </c>
@@ -2936,32 +3301,47 @@
         <v>167</v>
       </c>
       <c r="F56" t="s">
+        <v>201</v>
+      </c>
+      <c r="G56" t="s">
+        <v>207</v>
+      </c>
+      <c r="H56" t="s">
         <v>177</v>
       </c>
-      <c r="G56" t="s">
+      <c r="I56" t="s">
         <v>187</v>
       </c>
-      <c r="H56" t="s">
+      <c r="J56" t="s">
+        <v>212</v>
+      </c>
+      <c r="K56" t="s">
         <v>191</v>
       </c>
-      <c r="I56" t="s">
+      <c r="L56" t="s">
         <v>194</v>
       </c>
-      <c r="J56" t="s">
+      <c r="M56" t="s">
+        <v>212</v>
+      </c>
+      <c r="N56" t="s">
         <v>182</v>
       </c>
-      <c r="K56" t="s">
+      <c r="O56" t="s">
         <v>184</v>
+      </c>
+      <c r="P56" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:P32"/>
     <mergeCell ref="A50:A52"/>
     <mergeCell ref="A53:A55"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="C1:J1"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melicias/Documents/projeto CIIC - inovmineral/newTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E81A3F-5D73-CC4F-BE91-B4B0B02497E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FC8836-3876-9B44-9596-3EA0987C6604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" xr2:uid="{36346CD8-3FE4-D448-8DD5-31CF691BD5A8}"/>
   </bookViews>
@@ -1037,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A463B7D-D319-AA4C-87A7-ECB070DEF2AC}">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="86" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32:M32"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1046,16 +1046,16 @@
     <col min="1" max="1" width="13.1640625" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" customWidth="1"/>
     <col min="3" max="3" width="28.1640625" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="4" max="4" width="44.83203125" customWidth="1"/>
+    <col min="5" max="5" width="49.5" customWidth="1"/>
+    <col min="6" max="6" width="70.6640625" customWidth="1"/>
     <col min="7" max="7" width="26.5" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" customWidth="1"/>
     <col min="9" max="9" width="28.5" customWidth="1"/>
     <col min="10" max="10" width="31.5" customWidth="1"/>
     <col min="11" max="11" width="27.1640625" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="34" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" customWidth="1"/>
     <col min="14" max="14" width="13.1640625" customWidth="1"/>
     <col min="15" max="15" width="16.83203125" customWidth="1"/>
     <col min="16" max="16" width="17.6640625" customWidth="1"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melicias/Documents/projeto CIIC - inovmineral/newTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FC8836-3876-9B44-9596-3EA0987C6604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9987A6E3-2C36-0F4F-90AF-A8EFEF96E452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" xr2:uid="{36346CD8-3FE4-D448-8DD5-31CF691BD5A8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="258">
   <si>
     <t>Backdoor</t>
   </si>
@@ -675,16 +675,165 @@
   </si>
   <si>
     <t>0.962038</t>
+  </si>
+  <si>
+    <t>last testes with EDGEIIot</t>
+  </si>
+  <si>
+    <t>(F!-score)</t>
+  </si>
+  <si>
+    <t>98.07%</t>
+  </si>
+  <si>
+    <t>91.02%</t>
+  </si>
+  <si>
+    <t>SMOTE</t>
+  </si>
+  <si>
+    <t>97.5%</t>
+  </si>
+  <si>
+    <t>97.64%</t>
+  </si>
+  <si>
+    <t>97.55%</t>
+  </si>
+  <si>
+    <t>89.54%</t>
+  </si>
+  <si>
+    <t>SMOTENC</t>
+  </si>
+  <si>
+    <t>97.96%</t>
+  </si>
+  <si>
+    <t>90.59%</t>
+  </si>
+  <si>
+    <t>98.15%</t>
+  </si>
+  <si>
+    <t>98.16%</t>
+  </si>
+  <si>
+    <t>90.97%</t>
+  </si>
+  <si>
+    <t>95.82%</t>
+  </si>
+  <si>
+    <t>96.88%</t>
+  </si>
+  <si>
+    <t>95.94%</t>
+  </si>
+  <si>
+    <t>85.4%</t>
+  </si>
+  <si>
+    <t>98.02%</t>
+  </si>
+  <si>
+    <t>98.01%</t>
+  </si>
+  <si>
+    <t>90.62%</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>94.82%</t>
+  </si>
+  <si>
+    <t>95.21%</t>
+  </si>
+  <si>
+    <t>94.57%</t>
+  </si>
+  <si>
+    <t>77.43%</t>
+  </si>
+  <si>
+    <t>93.75%</t>
+  </si>
+  <si>
+    <t>96.24%</t>
+  </si>
+  <si>
+    <t>93.67%</t>
+  </si>
+  <si>
+    <t>80.67%</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>94.71%</t>
+  </si>
+  <si>
+    <t>95.9%</t>
+  </si>
+  <si>
+    <t>94.18%</t>
+  </si>
+  <si>
+    <t>73.34%</t>
+  </si>
+  <si>
+    <t>98.52%</t>
+  </si>
+  <si>
+    <t>98.57%</t>
+  </si>
+  <si>
+    <t>92.87%</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>98.41%</t>
+  </si>
+  <si>
+    <t>98.44%</t>
+  </si>
+  <si>
+    <t>93.55%</t>
+  </si>
+  <si>
+    <t>98.54%</t>
+  </si>
+  <si>
+    <t>92.77%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -710,7 +859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -719,8 +868,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1035,27 +1189,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A463B7D-D319-AA4C-87A7-ECB070DEF2AC}">
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="106" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" customWidth="1"/>
-    <col min="4" max="4" width="44.83203125" customWidth="1"/>
-    <col min="5" max="5" width="49.5" customWidth="1"/>
-    <col min="6" max="6" width="70.6640625" customWidth="1"/>
-    <col min="7" max="7" width="26.5" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28.5" customWidth="1"/>
-    <col min="10" max="10" width="31.5" customWidth="1"/>
-    <col min="11" max="11" width="27.1640625" customWidth="1"/>
-    <col min="12" max="12" width="34" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" customWidth="1"/>
+    <col min="1" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
     <col min="14" max="14" width="13.1640625" customWidth="1"/>
     <col min="15" max="15" width="16.83203125" customWidth="1"/>
     <col min="16" max="16" width="17.6640625" customWidth="1"/>
@@ -1065,31 +1218,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -2154,7 +2307,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B24" t="s">
@@ -2183,7 +2336,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>28</v>
       </c>
@@ -2210,7 +2363,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -2237,7 +2390,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B27" t="s">
@@ -2266,7 +2419,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" t="s">
         <v>28</v>
       </c>
@@ -2293,7 +2446,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" t="s">
         <v>30</v>
       </c>
@@ -2346,27 +2499,27 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3" t="s">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3" t="s">
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3" t="s">
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -3017,7 +3170,7 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B50" t="s">
@@ -3064,7 +3217,7 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
       <c r="B51" t="s">
         <v>28</v>
       </c>
@@ -3109,7 +3262,7 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
       <c r="B52" t="s">
         <v>30</v>
       </c>
@@ -3154,7 +3307,7 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B53" t="s">
@@ -3201,7 +3354,7 @@
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54" t="s">
         <v>28</v>
       </c>
@@ -3246,7 +3399,7 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="B55" t="s">
         <v>30</v>
       </c>
@@ -3334,8 +3487,1172 @@
         <v>208</v>
       </c>
     </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>213</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B61" s="4"/>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>217</v>
+      </c>
+      <c r="E61" t="s">
+        <v>222</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" t="s">
+        <v>217</v>
+      </c>
+      <c r="H61" t="s">
+        <v>222</v>
+      </c>
+      <c r="I61" t="s">
+        <v>7</v>
+      </c>
+      <c r="J61" t="s">
+        <v>217</v>
+      </c>
+      <c r="K61" t="s">
+        <v>222</v>
+      </c>
+      <c r="L61" t="s">
+        <v>7</v>
+      </c>
+      <c r="M61" t="s">
+        <v>217</v>
+      </c>
+      <c r="N61" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" t="s">
+        <v>32</v>
+      </c>
+      <c r="L63" t="s">
+        <v>32</v>
+      </c>
+      <c r="M63" t="s">
+        <v>17</v>
+      </c>
+      <c r="N63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64" t="s">
+        <v>63</v>
+      </c>
+      <c r="F64" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H64" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" t="s">
+        <v>25</v>
+      </c>
+      <c r="J64" t="s">
+        <v>48</v>
+      </c>
+      <c r="K64" t="s">
+        <v>25</v>
+      </c>
+      <c r="L64" t="s">
+        <v>42</v>
+      </c>
+      <c r="M64" t="s">
+        <v>42</v>
+      </c>
+      <c r="N64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" t="s">
+        <v>23</v>
+      </c>
+      <c r="I65" t="s">
+        <v>23</v>
+      </c>
+      <c r="J65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K65" t="s">
+        <v>23</v>
+      </c>
+      <c r="L65" t="s">
+        <v>23</v>
+      </c>
+      <c r="M65" t="s">
+        <v>23</v>
+      </c>
+      <c r="N65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66" t="s">
+        <v>23</v>
+      </c>
+      <c r="I66" t="s">
+        <v>45</v>
+      </c>
+      <c r="J66" t="s">
+        <v>34</v>
+      </c>
+      <c r="K66" t="s">
+        <v>45</v>
+      </c>
+      <c r="L66" t="s">
+        <v>23</v>
+      </c>
+      <c r="M66" t="s">
+        <v>23</v>
+      </c>
+      <c r="N66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" t="s">
+        <v>23</v>
+      </c>
+      <c r="I67" t="s">
+        <v>23</v>
+      </c>
+      <c r="J67" t="s">
+        <v>23</v>
+      </c>
+      <c r="K67" t="s">
+        <v>23</v>
+      </c>
+      <c r="L67" t="s">
+        <v>23</v>
+      </c>
+      <c r="M67" t="s">
+        <v>23</v>
+      </c>
+      <c r="N67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68" t="s">
+        <v>50</v>
+      </c>
+      <c r="F68" t="s">
+        <v>166</v>
+      </c>
+      <c r="G68" t="s">
+        <v>62</v>
+      </c>
+      <c r="H68" t="s">
+        <v>61</v>
+      </c>
+      <c r="I68" t="s">
+        <v>64</v>
+      </c>
+      <c r="J68" t="s">
+        <v>192</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="L68" t="s">
+        <v>21</v>
+      </c>
+      <c r="M68" t="s">
+        <v>252</v>
+      </c>
+      <c r="N68" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" t="s">
+        <v>76</v>
+      </c>
+      <c r="F69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" t="s">
+        <v>23</v>
+      </c>
+      <c r="H69" t="s">
+        <v>23</v>
+      </c>
+      <c r="I69" t="s">
+        <v>76</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K69" t="s">
+        <v>23</v>
+      </c>
+      <c r="L69" t="s">
+        <v>23</v>
+      </c>
+      <c r="M69" t="s">
+        <v>23</v>
+      </c>
+      <c r="N69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70" t="s">
+        <v>23</v>
+      </c>
+      <c r="I70" t="s">
+        <v>23</v>
+      </c>
+      <c r="J70" t="s">
+        <v>23</v>
+      </c>
+      <c r="K70" t="s">
+        <v>23</v>
+      </c>
+      <c r="L70" t="s">
+        <v>23</v>
+      </c>
+      <c r="M70" t="s">
+        <v>23</v>
+      </c>
+      <c r="N70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" t="s">
+        <v>140</v>
+      </c>
+      <c r="E71" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" t="s">
+        <v>39</v>
+      </c>
+      <c r="H71" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" t="s">
+        <v>235</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L71" t="s">
+        <v>75</v>
+      </c>
+      <c r="M71" t="s">
+        <v>75</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" t="s">
+        <v>63</v>
+      </c>
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" t="s">
+        <v>56</v>
+      </c>
+      <c r="G72" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" t="s">
+        <v>56</v>
+      </c>
+      <c r="I72" t="s">
+        <v>136</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K72" t="s">
+        <v>136</v>
+      </c>
+      <c r="L72" t="s">
+        <v>56</v>
+      </c>
+      <c r="M72" t="s">
+        <v>32</v>
+      </c>
+      <c r="N72" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" t="s">
+        <v>49</v>
+      </c>
+      <c r="K73" t="s">
+        <v>49</v>
+      </c>
+      <c r="L73" t="s">
+        <v>49</v>
+      </c>
+      <c r="M73" t="s">
+        <v>20</v>
+      </c>
+      <c r="N73" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" t="s">
+        <v>136</v>
+      </c>
+      <c r="H74" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J74" t="s">
+        <v>174</v>
+      </c>
+      <c r="K74" t="s">
+        <v>174</v>
+      </c>
+      <c r="L74" t="s">
+        <v>37</v>
+      </c>
+      <c r="M74" t="s">
+        <v>37</v>
+      </c>
+      <c r="N74" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" t="s">
+        <v>47</v>
+      </c>
+      <c r="E75" t="s">
+        <v>140</v>
+      </c>
+      <c r="F75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" t="s">
+        <v>38</v>
+      </c>
+      <c r="H75" t="s">
+        <v>57</v>
+      </c>
+      <c r="I75" t="s">
+        <v>85</v>
+      </c>
+      <c r="J75" t="s">
+        <v>85</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L75" t="s">
+        <v>75</v>
+      </c>
+      <c r="M75" t="s">
+        <v>75</v>
+      </c>
+      <c r="N75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E76" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" t="s">
+        <v>49</v>
+      </c>
+      <c r="H76" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" t="s">
+        <v>45</v>
+      </c>
+      <c r="J76" t="s">
+        <v>100</v>
+      </c>
+      <c r="K76" t="s">
+        <v>100</v>
+      </c>
+      <c r="L76" t="s">
+        <v>56</v>
+      </c>
+      <c r="M76" t="s">
+        <v>56</v>
+      </c>
+      <c r="N76" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" t="s">
+        <v>166</v>
+      </c>
+      <c r="E77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" t="s">
+        <v>57</v>
+      </c>
+      <c r="G77" t="s">
+        <v>96</v>
+      </c>
+      <c r="H77" t="s">
+        <v>57</v>
+      </c>
+      <c r="I77" t="s">
+        <v>192</v>
+      </c>
+      <c r="J77" t="s">
+        <v>35</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="L77" t="s">
+        <v>190</v>
+      </c>
+      <c r="M77" t="s">
+        <v>37</v>
+      </c>
+      <c r="N77" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" t="s">
+        <v>215</v>
+      </c>
+      <c r="D79" t="s">
+        <v>218</v>
+      </c>
+      <c r="E79" t="s">
+        <v>223</v>
+      </c>
+      <c r="F79" t="s">
+        <v>225</v>
+      </c>
+      <c r="G79" t="s">
+        <v>228</v>
+      </c>
+      <c r="H79" t="s">
+        <v>232</v>
+      </c>
+      <c r="I79" t="s">
+        <v>236</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="K79" t="s">
+        <v>245</v>
+      </c>
+      <c r="L79" t="s">
+        <v>249</v>
+      </c>
+      <c r="M79" t="s">
+        <v>253</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" t="s">
+        <v>215</v>
+      </c>
+      <c r="D80" t="s">
+        <v>219</v>
+      </c>
+      <c r="E80" t="s">
+        <v>223</v>
+      </c>
+      <c r="F80" t="s">
+        <v>226</v>
+      </c>
+      <c r="G80" t="s">
+        <v>229</v>
+      </c>
+      <c r="H80" t="s">
+        <v>232</v>
+      </c>
+      <c r="I80" t="s">
+        <v>237</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="K80" t="s">
+        <v>246</v>
+      </c>
+      <c r="L80" t="s">
+        <v>250</v>
+      </c>
+      <c r="M80" t="s">
+        <v>92</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" t="s">
+        <v>215</v>
+      </c>
+      <c r="D81" t="s">
+        <v>218</v>
+      </c>
+      <c r="E81" t="s">
+        <v>223</v>
+      </c>
+      <c r="F81" t="s">
+        <v>225</v>
+      </c>
+      <c r="G81" t="s">
+        <v>228</v>
+      </c>
+      <c r="H81" t="s">
+        <v>232</v>
+      </c>
+      <c r="I81" t="s">
+        <v>236</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="K81" t="s">
+        <v>245</v>
+      </c>
+      <c r="L81" t="s">
+        <v>249</v>
+      </c>
+      <c r="M81" t="s">
+        <v>253</v>
+      </c>
+      <c r="N81" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82" t="s">
+        <v>215</v>
+      </c>
+      <c r="D82" t="s">
+        <v>220</v>
+      </c>
+      <c r="E82" t="s">
+        <v>223</v>
+      </c>
+      <c r="F82" t="s">
+        <v>225</v>
+      </c>
+      <c r="G82" t="s">
+        <v>230</v>
+      </c>
+      <c r="H82" t="s">
+        <v>233</v>
+      </c>
+      <c r="I82" t="s">
+        <v>238</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="K82" t="s">
+        <v>247</v>
+      </c>
+      <c r="L82" t="s">
+        <v>251</v>
+      </c>
+      <c r="M82" t="s">
+        <v>254</v>
+      </c>
+      <c r="N82" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" t="s">
+        <v>43</v>
+      </c>
+      <c r="E83" t="s">
+        <v>45</v>
+      </c>
+      <c r="F83" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" t="s">
+        <v>25</v>
+      </c>
+      <c r="H83" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" t="s">
+        <v>19</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K83" t="s">
+        <v>190</v>
+      </c>
+      <c r="L83" t="s">
+        <v>42</v>
+      </c>
+      <c r="M83" t="s">
+        <v>45</v>
+      </c>
+      <c r="N83" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" s="2"/>
+      <c r="B84" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" t="s">
+        <v>45</v>
+      </c>
+      <c r="E84" t="s">
+        <v>63</v>
+      </c>
+      <c r="F84" t="s">
+        <v>63</v>
+      </c>
+      <c r="G84" t="s">
+        <v>37</v>
+      </c>
+      <c r="H84" t="s">
+        <v>63</v>
+      </c>
+      <c r="I84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J84" t="s">
+        <v>22</v>
+      </c>
+      <c r="K84" t="s">
+        <v>34</v>
+      </c>
+      <c r="L84" t="s">
+        <v>20</v>
+      </c>
+      <c r="M84" t="s">
+        <v>49</v>
+      </c>
+      <c r="N84" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" s="2"/>
+      <c r="B85" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" t="s">
+        <v>43</v>
+      </c>
+      <c r="E85" t="s">
+        <v>63</v>
+      </c>
+      <c r="F85" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" t="s">
+        <v>22</v>
+      </c>
+      <c r="H85" t="s">
+        <v>63</v>
+      </c>
+      <c r="I85" t="s">
+        <v>140</v>
+      </c>
+      <c r="J85" t="s">
+        <v>48</v>
+      </c>
+      <c r="K85" t="s">
+        <v>48</v>
+      </c>
+      <c r="L85" t="s">
+        <v>49</v>
+      </c>
+      <c r="M85" t="s">
+        <v>63</v>
+      </c>
+      <c r="N85" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" t="s">
+        <v>56</v>
+      </c>
+      <c r="D86" t="s">
+        <v>56</v>
+      </c>
+      <c r="E86" t="s">
+        <v>56</v>
+      </c>
+      <c r="F86" t="s">
+        <v>56</v>
+      </c>
+      <c r="G86" t="s">
+        <v>32</v>
+      </c>
+      <c r="H86" t="s">
+        <v>56</v>
+      </c>
+      <c r="I86" t="s">
+        <v>42</v>
+      </c>
+      <c r="J86" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" t="s">
+        <v>17</v>
+      </c>
+      <c r="L86" t="s">
+        <v>76</v>
+      </c>
+      <c r="M86" t="s">
+        <v>76</v>
+      </c>
+      <c r="N86" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" s="2"/>
+      <c r="B87" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" t="s">
+        <v>56</v>
+      </c>
+      <c r="D87" t="s">
+        <v>32</v>
+      </c>
+      <c r="E87" t="s">
+        <v>56</v>
+      </c>
+      <c r="F87" t="s">
+        <v>56</v>
+      </c>
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" t="s">
+        <v>56</v>
+      </c>
+      <c r="I87" t="s">
+        <v>42</v>
+      </c>
+      <c r="J87" t="s">
+        <v>49</v>
+      </c>
+      <c r="K87" t="s">
+        <v>42</v>
+      </c>
+      <c r="L87" t="s">
+        <v>76</v>
+      </c>
+      <c r="M87" t="s">
+        <v>56</v>
+      </c>
+      <c r="N87" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="2"/>
+      <c r="B88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88" t="s">
+        <v>56</v>
+      </c>
+      <c r="D88" t="s">
+        <v>56</v>
+      </c>
+      <c r="E88" t="s">
+        <v>56</v>
+      </c>
+      <c r="F88" t="s">
+        <v>56</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s">
+        <v>56</v>
+      </c>
+      <c r="I88" t="s">
+        <v>42</v>
+      </c>
+      <c r="J88" t="s">
+        <v>49</v>
+      </c>
+      <c r="K88" t="s">
+        <v>49</v>
+      </c>
+      <c r="L88" t="s">
+        <v>76</v>
+      </c>
+      <c r="M88" t="s">
+        <v>56</v>
+      </c>
+      <c r="N88" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" t="s">
+        <v>216</v>
+      </c>
+      <c r="D89" t="s">
+        <v>221</v>
+      </c>
+      <c r="E89" t="s">
+        <v>224</v>
+      </c>
+      <c r="F89" t="s">
+        <v>227</v>
+      </c>
+      <c r="G89" t="s">
+        <v>231</v>
+      </c>
+      <c r="H89" t="s">
+        <v>234</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="M89" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="N89" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="C62:N62"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="B60:B62"/>
     <mergeCell ref="D32:G32"/>
     <mergeCell ref="H32:J32"/>
     <mergeCell ref="K32:M32"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melicias/Documents/projeto CIIC - inovmineral/newTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9987A6E3-2C36-0F4F-90AF-A8EFEF96E452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F84CC09-A13B-5140-89CE-F11FEA79E33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" xr2:uid="{36346CD8-3FE4-D448-8DD5-31CF691BD5A8}"/>
+    <workbookView xWindow="15580" yWindow="500" windowWidth="33600" windowHeight="19220" xr2:uid="{36346CD8-3FE4-D448-8DD5-31CF691BD5A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -710,9 +710,6 @@
     <t>97.96%</t>
   </si>
   <si>
-    <t>90.59%</t>
-  </si>
-  <si>
     <t>98.15%</t>
   </si>
   <si>
@@ -810,6 +807,9 @@
   </si>
   <si>
     <t>92.77%</t>
+  </si>
+  <si>
+    <t>90.09%</t>
   </si>
 </sst>
 </file>
@@ -1191,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A463B7D-D319-AA4C-87A7-ECB070DEF2AC}">
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="106" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K77" sqref="K77"/>
+    <sheetView tabSelected="1" topLeftCell="B59" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1204,7 +1204,7 @@
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="14.1640625" customWidth="1"/>
@@ -3809,7 +3809,7 @@
         <v>21</v>
       </c>
       <c r="M68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N68" t="s">
         <v>22</v>
@@ -3920,7 +3920,7 @@
         <v>21</v>
       </c>
       <c r="I71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J71" s="6" t="s">
         <v>62</v>
@@ -4172,7 +4172,7 @@
         <v>35</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L77" t="s">
         <v>190</v>
@@ -4198,28 +4198,28 @@
         <v>223</v>
       </c>
       <c r="F79" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H79" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I79" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K79" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M79" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N79" s="5" t="s">
         <v>92</v>
@@ -4239,31 +4239,31 @@
         <v>223</v>
       </c>
       <c r="F80" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G80" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H80" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K80" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M80" t="s">
         <v>92</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
@@ -4280,28 +4280,28 @@
         <v>223</v>
       </c>
       <c r="F81" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H81" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I81" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K81" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M81" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N81" s="5" t="s">
         <v>92</v>
@@ -4321,28 +4321,28 @@
         <v>223</v>
       </c>
       <c r="F82" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G82" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H82" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K82" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L82" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M82" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N82" s="5" t="s">
         <v>92</v>
@@ -4615,34 +4615,34 @@
         <v>221</v>
       </c>
       <c r="E89" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="F89" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G89" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H89" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M89" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N89" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
